--- a/teaching/traditional_assets/database/data/cyprus/cyprus_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/cyprus/cyprus_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,7 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0649</v>
+        <v>0.218</v>
+      </c>
+      <c r="E2">
+        <v>0.6595</v>
+      </c>
+      <c r="F2">
+        <v>0.191</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -600,100 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001250859170077821</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.001228856928045641</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>176.1</v>
+        <v>260.8000000000001</v>
       </c>
       <c r="L2">
-        <v>0.1788180341186028</v>
+        <v>0.1348988775668546</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>112.31</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.01550643397581046</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.4306365030674846</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>103.8</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.01433147401557409</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.398006134969325</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>8.510000000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.07577241563529521</v>
       </c>
       <c r="U2">
-        <v>9853.5</v>
+        <v>10432.5</v>
       </c>
       <c r="V2">
-        <v>9.964101526949134</v>
+        <v>1.440395979455459</v>
       </c>
       <c r="W2">
-        <v>0.0766491785017594</v>
+        <v>0.06024409244352116</v>
       </c>
       <c r="X2">
-        <v>0.07364947769303726</v>
+        <v>0.05856591019418327</v>
       </c>
       <c r="Y2">
-        <v>0.002999700808722139</v>
+        <v>0.001678182249337898</v>
       </c>
       <c r="Z2">
-        <v>-0.2798753564087759</v>
+        <v>-0.5396812103955561</v>
       </c>
       <c r="AA2">
-        <v>-0.0009210625892460683</v>
+        <v>-0</v>
       </c>
       <c r="AB2">
-        <v>0.06161882618251635</v>
+        <v>0.05329997332913817</v>
       </c>
       <c r="AC2">
-        <v>-0.06253988877176242</v>
+        <v>-0.05329997332913817</v>
       </c>
       <c r="AD2">
-        <v>806.9</v>
+        <v>2550.7</v>
       </c>
       <c r="AE2">
-        <v>4.490769446536812</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>811.3907694465368</v>
+        <v>2550.7</v>
       </c>
       <c r="AG2">
-        <v>-9042.109230553464</v>
+        <v>-7881.8</v>
       </c>
       <c r="AH2">
-        <v>0.4506998442790341</v>
+        <v>0.2604482564966559</v>
       </c>
       <c r="AI2">
-        <v>0.173404079770509</v>
+        <v>0.3244876410497793</v>
       </c>
       <c r="AJ2">
-        <v>1.122795766468871</v>
+        <v>12.33458528951487</v>
       </c>
       <c r="AK2">
-        <v>1.747500744091842</v>
+        <v>3.064701765300568</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>378.8262910798122</v>
-      </c>
-      <c r="AP2">
-        <v>-4245.121704485195</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hellenic Bank Public Company Limited (CSE:HB)</t>
+          <t>TCS Group Holding PLC (LSE:TCS)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -712,6 +715,15 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.535</v>
+      </c>
+      <c r="E3">
+        <v>0.95</v>
+      </c>
+      <c r="F3">
+        <v>0.191</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -725,82 +737,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>122.6</v>
+        <v>552.2</v>
       </c>
       <c r="L3">
-        <v>0.2902462121212121</v>
+        <v>0.472693032015066</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>112.31</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.0173908330752555</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0.2033864541832669</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>103.8</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.0160730876432332</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.1879753712423035</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>8.510000000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.07577241563529521</v>
       </c>
       <c r="U3">
-        <v>5042.1</v>
+        <v>636.4</v>
       </c>
       <c r="V3">
-        <v>12.98840803709428</v>
+        <v>0.09854444100340662</v>
       </c>
       <c r="W3">
-        <v>0.1324260099373515</v>
+        <v>0.4306324573032832</v>
       </c>
       <c r="X3">
-        <v>0.06482494734802724</v>
+        <v>0.04938574416024047</v>
       </c>
       <c r="Y3">
-        <v>0.06760106258932425</v>
+        <v>0.3812467131430427</v>
       </c>
       <c r="Z3">
-        <v>-0.1482105263157895</v>
+        <v>0.7154142935880948</v>
       </c>
       <c r="AA3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0592119331119506</v>
+        <v>0.04845915785033052</v>
       </c>
       <c r="AC3">
-        <v>-0.0592119331119506</v>
+        <v>-0.04845915785033052</v>
       </c>
       <c r="AD3">
-        <v>173.5</v>
+        <v>709.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>173.5</v>
+        <v>709.9</v>
       </c>
       <c r="AG3">
-        <v>-4868.6</v>
+        <v>73.5</v>
       </c>
       <c r="AH3">
-        <v>0.3088837457717643</v>
+        <v>0.09903877007212712</v>
       </c>
       <c r="AI3">
-        <v>0.1300209832134293</v>
+        <v>0.3212071851952401</v>
       </c>
       <c r="AJ3">
-        <v>1.086644049638425</v>
+        <v>0.01125315777386512</v>
       </c>
       <c r="AK3">
-        <v>1.313105159532864</v>
+        <v>0.04670521700451166</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -817,118 +832,231 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Hellenic Bank Public Company Limited (CSE:HB)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.207</v>
+      </c>
+      <c r="E4">
+        <v>0.369</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.1592677345537757</v>
+      </c>
+      <c r="M4">
+        <v>-0</v>
+      </c>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>-0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>-0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>3330.2</v>
+      </c>
+      <c r="V4">
+        <v>8.654365904365903</v>
+      </c>
+      <c r="W4">
+        <v>0.06024409244352116</v>
+      </c>
+      <c r="X4">
+        <v>0.05856591019418327</v>
+      </c>
+      <c r="Y4">
+        <v>0.001678182249337898</v>
+      </c>
+      <c r="Z4">
+        <v>-0.1176850779629979</v>
+      </c>
+      <c r="AA4">
+        <v>-0</v>
+      </c>
+      <c r="AB4">
+        <v>0.05329997332913817</v>
+      </c>
+      <c r="AC4">
+        <v>-0.05329997332913817</v>
+      </c>
+      <c r="AD4">
+        <v>152.7</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>152.7</v>
+      </c>
+      <c r="AG4">
+        <v>-3177.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.2840930232558139</v>
+      </c>
+      <c r="AI4">
+        <v>0.1045317634173056</v>
+      </c>
+      <c r="AJ4">
+        <v>1.137787803917356</v>
+      </c>
+      <c r="AK4">
+        <v>1.699743233122927</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Bank of Cyprus Holdings Public Limited Company (CSE:BOCH)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Bank (Money Center)</t>
         </is>
       </c>
-      <c r="D4">
-        <v>-0.0649</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.002190338034659739</v>
-      </c>
-      <c r="J4">
-        <v>0.002190338034659739</v>
-      </c>
-      <c r="K4">
-        <v>53.5</v>
-      </c>
-      <c r="L4">
-        <v>0.09512802275960171</v>
-      </c>
-      <c r="M4">
-        <v>-0</v>
-      </c>
-      <c r="N4">
-        <v>-0</v>
-      </c>
-      <c r="O4">
-        <v>-0</v>
-      </c>
-      <c r="P4">
-        <v>-0</v>
-      </c>
-      <c r="Q4">
-        <v>-0</v>
-      </c>
-      <c r="R4">
-        <v>-0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>4811.4</v>
-      </c>
-      <c r="V4">
-        <v>8.009655402030962</v>
-      </c>
-      <c r="W4">
-        <v>0.02087234706616729</v>
-      </c>
-      <c r="X4">
-        <v>0.08247400803804726</v>
-      </c>
-      <c r="Y4">
-        <v>-0.06160166097187997</v>
-      </c>
-      <c r="Z4">
-        <v>-0.8410232344699724</v>
-      </c>
-      <c r="AA4">
-        <v>-0.001842125178492137</v>
-      </c>
-      <c r="AB4">
-        <v>0.06402571925308211</v>
-      </c>
-      <c r="AC4">
-        <v>-0.06586784443157424</v>
-      </c>
-      <c r="AD4">
-        <v>633.4</v>
-      </c>
-      <c r="AE4">
-        <v>4.490769446536812</v>
-      </c>
-      <c r="AF4">
-        <v>637.8907694465368</v>
-      </c>
-      <c r="AG4">
-        <v>-4173.509230553463</v>
-      </c>
-      <c r="AH4">
-        <v>0.5150133403073702</v>
-      </c>
-      <c r="AI4">
-        <v>0.1907117106616773</v>
-      </c>
-      <c r="AJ4">
-        <v>1.16813100315097</v>
-      </c>
-      <c r="AK4">
-        <v>2.845685915244432</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>297.3708920187793</v>
-      </c>
-      <c r="AP4">
-        <v>-1959.394004954677</v>
+      <c r="D5">
+        <v>0.218</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>-361</v>
+      </c>
+      <c r="L5">
+        <v>-1.100274306613837</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>6465.9</v>
+      </c>
+      <c r="V5">
+        <v>16.16475</v>
+      </c>
+      <c r="W5">
+        <v>-0.1348977990359105</v>
+      </c>
+      <c r="X5">
+        <v>0.1809052758796562</v>
+      </c>
+      <c r="Y5">
+        <v>-0.3158030749155667</v>
+      </c>
+      <c r="Z5">
+        <v>-0.2184566216126241</v>
+      </c>
+      <c r="AA5">
+        <v>-0</v>
+      </c>
+      <c r="AB5">
+        <v>0.0716849993168773</v>
+      </c>
+      <c r="AC5">
+        <v>-0.0716849993168773</v>
+      </c>
+      <c r="AD5">
+        <v>1688.1</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1688.1</v>
+      </c>
+      <c r="AG5">
+        <v>-4777.799999999999</v>
+      </c>
+      <c r="AH5">
+        <v>0.8084382931851922</v>
+      </c>
+      <c r="AI5">
+        <v>0.4029070600028641</v>
+      </c>
+      <c r="AJ5">
+        <v>1.091370094568048</v>
+      </c>
+      <c r="AK5">
+        <v>2.099116910504811</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
